--- a/medicine/Enfance/Tobie_Lolness/Tobie_Lolness.xlsx
+++ b/medicine/Enfance/Tobie_Lolness/Tobie_Lolness.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tobie Lolness est une série de romans fantastiques de Timothée de Fombelle, illustrée par François Place, qui se compose de deux tomes : La Vie suspendue et Les Yeux d’Elisha. 
@@ -512,14 +524,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série a été traduite dans plus de 20 langues dans le monde[1],[2] au milieu des années 2010, puis en plus d'une trentaine en 2024[3]. Elle est un « best-seller[4] » : « Les deux tomes de son premier roman jeunesse, Tobie Lolness (2006-2007), s’étaient écoulés à plus de 1 million d’exemplaires[5] » écrit Télérama en mars 2020. En février 2024 , la série « a été vendue à plus de 1,6 million d’exemplaires dans le monde entier, dont plus de 600 000 rien qu’en France[3] ».
-Le tome 1 a reçu de nombreux prix jeunesse[3], dont le Prix Sorcières et le Grand prix de l'Imaginaire.
-Elle est adaptée en série animée en 2023[4],[3].
-Les personnages ont une taille ne dépassant pas plus de deux millimètres et vivent « dans un grand chêne, l'Arbre[4] » qui à, leur échelle, est aussi grand qu'un vaste pays, un « un arbre-univers[2] ».
-Pour Télérama, dont le premier tome figure dans sa « Petite bibliothèque idéale » en 2023[6] : « Il gardait cette histoire du peuple de l’Arbre depuis ses 12 ans et ne l’avait racontée qu’à quelques personnes. Et puis un jour, la trentaine venue, Timothée de Fombelle a commencé à l’écrire : « Tobie Lolness mesurait un millimètre et demi, ce qui n’était pas grand pour son âge. » Et la suite est venue, deux tomes d’une aventure aux méandres fascinants qui conte une inoubliable chasse à l’enfant. [...] Très peu de fantastique dans cette fable d’une formidable richesse qui met en scène, en miniature, les rapports humains, la brutalité du monde et la fragilité de notre planète. Un premier roman fulgurant, qui sera suivi de nombreux autres, [...] qui font de Timothée de Fombelle un des maîtres du roman jeunesse contemporain[6] ».
-Pour le premier tome, l'avis critique de  La Revue des livres pour enfants mentionne : « Ce jeune auteur donne à son récit passionnant le souffle d'une épopée avec toute sa symbolique non dépourvue d'humour, et étonnamment actuelle. Il s'inscrit dès ce premier roman dans la grande tradition des créateurs d'univers minuscules[7] ». Pour le second tome, elle écrit : « L'auteur construit son histoire comme un puzzle où les nombreux flash-back viennent éclairer le présent et où chaque détail a son importance. [...] Une histoire passionnante, [...] où les héros principaux font preuve d'une profonde humanité et de beaucoup de courage[8] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série a été traduite dans plus de 20 langues dans le monde, au milieu des années 2010, puis en plus d'une trentaine en 2024. Elle est un « best-seller » : « Les deux tomes de son premier roman jeunesse, Tobie Lolness (2006-2007), s’étaient écoulés à plus de 1 million d’exemplaires » écrit Télérama en mars 2020. En février 2024 , la série « a été vendue à plus de 1,6 million d’exemplaires dans le monde entier, dont plus de 600 000 rien qu’en France ».
+Le tome 1 a reçu de nombreux prix jeunesse, dont le Prix Sorcières et le Grand prix de l'Imaginaire.
+Elle est adaptée en série animée en 2023,.
+Les personnages ont une taille ne dépassant pas plus de deux millimètres et vivent « dans un grand chêne, l'Arbre » qui à, leur échelle, est aussi grand qu'un vaste pays, un « un arbre-univers ».
+Pour Télérama, dont le premier tome figure dans sa « Petite bibliothèque idéale » en 2023 : « Il gardait cette histoire du peuple de l’Arbre depuis ses 12 ans et ne l’avait racontée qu’à quelques personnes. Et puis un jour, la trentaine venue, Timothée de Fombelle a commencé à l’écrire : « Tobie Lolness mesurait un millimètre et demi, ce qui n’était pas grand pour son âge. » Et la suite est venue, deux tomes d’une aventure aux méandres fascinants qui conte une inoubliable chasse à l’enfant. [...] Très peu de fantastique dans cette fable d’une formidable richesse qui met en scène, en miniature, les rapports humains, la brutalité du monde et la fragilité de notre planète. Un premier roman fulgurant, qui sera suivi de nombreux autres, [...] qui font de Timothée de Fombelle un des maîtres du roman jeunesse contemporain ».
+Pour le premier tome, l'avis critique de  La Revue des livres pour enfants mentionne : « Ce jeune auteur donne à son récit passionnant le souffle d'une épopée avec toute sa symbolique non dépourvue d'humour, et étonnamment actuelle. Il s'inscrit dès ce premier roman dans la grande tradition des créateurs d'univers minuscules ». Pour le second tome, elle écrit : « L'auteur construit son histoire comme un puzzle où les nombreux flash-back viennent éclairer le présent et où chaque détail a son importance. [...] Une histoire passionnante, [...] où les héros principaux font preuve d'une profonde humanité et de beaucoup de courage ».
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tobie Lolness est un enfant qui vit heureux auprès de ses parents, Maïa et le Professeur Sim, dans les Cimes de l'Arbre. Le Peuple de l’Arbre voue une grande admiration au Professeur Sim qui a fait de très grandes découvertes. Il est très écouté du Grand Conseil de l’Arbre.
 Or Tobie, du haut de son millimètre et demi, est contraint de quitter son peuple à l’âge de 7 ans. Son père a en effet découvert le secret de la vie de l’Arbre (la sève) alors que tout le monde pense que l’Arbre ne vit pas et que l’on peut exploiter indéfiniment son bois. Le Grand Conseil décide d’envoyer la famille Lolness dans les basses branches quand le Professeur, bien inspiré, refuse de livrer son secret, pensant qu’il pourrait être utilisé à des fins de destruction de l’Arbre. Après quelques années, les parents de Tobie se font capturer pour livrer leur secret, mais Tobie réussit à s’échapper pour retourner dans les basses branches.
@@ -583,19 +599,21 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour le tome 1 La Vie suspendue :
-2006 : Prix Saint-Exupéry[9]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le tome 1 La Vie suspendue :
+2006 : Prix Saint-Exupéry
 2006 : Prix Millepages jeunesse
-2006 : Prix Tam-Tam[10]
-2007 : Prix Sorcières[11], catégorie Roman jeune
-2007 : Grand prix de l'Imaginaire[12]
-2007 : Grand prix des jeunes lecteurs[13]
-2007 : Prix Andersen[14]
+2006 : Prix Tam-Tam
+2007 : Prix Sorcières, catégorie Roman jeune
+2007 : Grand prix de l'Imaginaire
+2007 : Grand prix des jeunes lecteurs
+2007 : Prix Andersen
 2008 : Prix Bernard Versele, catégorie "Cinq chouettes"
-2008 : (international) « Honour List »[15] de l' IBBY
-2008 : Prix Gayant lecture [16]</t>
+2008 : (international) « Honour List » de l' IBBY
+2008 : Prix Gayant lecture </t>
         </is>
       </c>
     </row>
@@ -623,7 +641,9 @@
           <t>Liste des volumes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Timothée de Fombelle (ill. François Place), La Vie suspendue, Gallimard jeunesse, avril 2006, 150727e éd., 320 p. (ISBN 978-2-07-057181-9)
 Timothée de Fombelle (ill. François Place), Les Yeux d’Elisha, Paris, Gallimard jeunesse, avril 2007, 145525e éd., 352 p. (ISBN 978-2-07-057893-1)</t>
@@ -656,9 +676,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Série animée
-La série Tobie Lolness a été adaptée[4] sous forme d'une série animée[3] de 13 épisodes de 52 minutes, soit 26 épisodes de 26 minutes, les deux formats sont prévus, notamment pour exportation à l'étranger, par Tant mieux prod. Le dessin est signé par Kerascoët et la série est sortie sur Okoo le 7 décembre 2023 avant d'être diffusée le 24 décembre 2023 à la télévision[17],[18],[19],[20].
-Parmi les principaux changements par rapport à l’œuvre originale furent le passage à une structure strictement chronologique ainsi qu'une réduction de la durée de l'histoire de 10 à 5 ans afin de moins perdre les jeunes spectateurs[18].
+          <t>Série animée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série Tobie Lolness a été adaptée sous forme d'une série animée de 13 épisodes de 52 minutes, soit 26 épisodes de 26 minutes, les deux formats sont prévus, notamment pour exportation à l'étranger, par Tant mieux prod. Le dessin est signé par Kerascoët et la série est sortie sur Okoo le 7 décembre 2023 avant d'être diffusée le 24 décembre 2023 à la télévision.
+Parmi les principaux changements par rapport à l’œuvre originale furent le passage à une structure strictement chronologique ainsi qu'une réduction de la durée de l'histoire de 10 à 5 ans afin de moins perdre les jeunes spectateurs.
 </t>
         </is>
       </c>
